--- a/4.xlsx
+++ b/4.xlsx
@@ -531,7 +531,9 @@
       <c r="B9" s="19">
         <v>0.4166666666666667</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="20">
+        <v>5.0</v>
+      </c>
       <c r="D9" s="20"/>
       <c r="E9" s="27"/>
       <c r="F9" s="21"/>
@@ -545,7 +547,9 @@
       <c r="B10" s="23">
         <v>0.4375</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="24">
+        <v>5.0</v>
+      </c>
       <c r="D10" s="24"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
@@ -559,7 +563,9 @@
       <c r="B11" s="19">
         <v>0.4583333333333333</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="20">
+        <v>5.0</v>
+      </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
